--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1067777.911261271</v>
+        <v>1064910.030566859</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587979</v>
+        <v>8444421.381715726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11484480.50482611</v>
+        <v>11484460.31916972</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>256.5938693134762</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>57.44045292477201</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.6845699177939</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>126.0887386816668</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299512</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>180.2484107694632</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609773</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>280.6804730855843</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>163.4467615872998</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>193.7989719911866</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881749</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,10 +2059,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>11.03304066190918</v>
       </c>
       <c r="W19" t="n">
-        <v>36.12502111055483</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249683</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>36.15999212057498</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840149</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5312375168954</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787886</v>
+        <v>7.081331206015534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094682</v>
+        <v>88.79820333299209</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248376</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766581</v>
+        <v>2.334151821526021</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>17.64569410020124</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898776</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.1539249212548</v>
+        <v>70.88542329426754</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T28" t="n">
-        <v>78.30106814807323</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787886</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094682</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766581</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898776</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.32771992248921</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.272789987272</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312964</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787886</v>
+        <v>7.081331206015705</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094682</v>
+        <v>88.7982033329922</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392678</v>
+        <v>84.97321768248378</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766581</v>
+        <v>2.334151821526106</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316347</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>144.4353940427145</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898776</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.1539249212548</v>
+        <v>70.88542329426762</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785568</v>
       </c>
       <c r="T34" t="n">
-        <v>29.06685506830341</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119521</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3481,10 +3481,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>7.558362179665155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>75.28299328487141</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>201.5959510772043</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2159827884910044</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>81.37259901119342</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>64.44601915223821</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1469.273141255051</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.273141255051</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1469.273141255051</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1469.273141255051</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
         <v>548.527081850681</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>737.541684387221</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601079</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>804.836468032201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198652</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374722</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1672.827836725326</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.827836725326</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.410666688365</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.421115790348</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1155.421115790348</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>323.5285488293692</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.6246893481007</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>558.6885064201938</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>408.5718670078581</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>260.658773425465</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>260.658773425465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,10 +5455,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
@@ -5470,16 +5470,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783404</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783404</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783404</v>
+        <v>424.0994467765445</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.2731541783404</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5501,43 +5501,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454823</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126748</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946816</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.517445238747</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C19" t="n">
-        <v>536.5812623108401</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927022</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862229</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384225</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W19" t="n">
-        <v>1154.299575280294</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X19" t="n">
-        <v>926.3100243822771</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.517445238747</v>
+        <v>414.613856788637</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5729,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037953</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>301.0224619425387</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>132.0862790146318</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442041</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927002</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501053</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626697</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208099</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143257</v>
+        <v>709.6864413838493</v>
       </c>
       <c r="X22" t="n">
-        <v>703.4635059163083</v>
+        <v>481.6968904858319</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.6709267727782</v>
+        <v>260.9043113423018</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679677</v>
@@ -6057,34 +6057,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.0400813400983</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>339.1038984121914</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>339.1038984121914</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121914</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1743.685650431072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1454.582783556716</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1199.898295350829</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>910.4811253138681</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>910.4811253138681</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>689.688546170338</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653993</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886067</v>
+        <v>358.2021945153783</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030693</v>
+        <v>804.7014151994164</v>
       </c>
       <c r="L26" t="n">
-        <v>1692.193343587751</v>
+        <v>1404.852467736289</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054107</v>
+        <v>2093.926918783763</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028838</v>
+        <v>2798.765123233177</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300296</v>
+        <v>3450.988591588945</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646626</v>
+        <v>3973.145231248393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4527.282216042447</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E27" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778326</v>
       </c>
       <c r="F27" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047176</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866051</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044004</v>
+        <v>96.49777987399519</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421376</v>
+        <v>232.5958076174678</v>
       </c>
       <c r="K27" t="n">
-        <v>545.6098185067159</v>
+        <v>547.3935737179999</v>
       </c>
       <c r="L27" t="n">
-        <v>1013.685713517275</v>
+        <v>747.1815323598439</v>
       </c>
       <c r="M27" t="n">
-        <v>1579.265073453203</v>
+        <v>1314.547603420579</v>
       </c>
       <c r="N27" t="n">
-        <v>2174.222281028472</v>
+        <v>1911.338811047604</v>
       </c>
       <c r="O27" t="n">
-        <v>2174.222281028472</v>
+        <v>1911.338811047604</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.03746073281</v>
+        <v>2312.343290083221</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.4119284829036</v>
+        <v>408.9705711061354</v>
       </c>
       <c r="C28" t="n">
-        <v>787.4757455549966</v>
+        <v>391.1466376715887</v>
       </c>
       <c r="D28" t="n">
-        <v>637.3591061426608</v>
+        <v>241.029998259253</v>
       </c>
       <c r="E28" t="n">
-        <v>489.4460125602677</v>
+        <v>241.029998259253</v>
       </c>
       <c r="F28" t="n">
-        <v>489.4460125602677</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G28" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H28" t="n">
-        <v>179.4762707375322</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573047</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532474</v>
+        <v>417.5071952352228</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834333</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358418</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740117</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.292026969321</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.95709932761</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262879</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.127700961143</v>
+        <v>2277.238529591902</v>
       </c>
       <c r="S28" t="n">
-        <v>2271.127700961143</v>
+        <v>2092.617956886289</v>
       </c>
       <c r="T28" t="n">
-        <v>2192.035712932786</v>
+        <v>1872.583577444211</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.954630699521</v>
+        <v>1583.50282422077</v>
       </c>
       <c r="V28" t="n">
-        <v>1648.270142493634</v>
+        <v>1328.818336014883</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.852972456673</v>
+        <v>1039.401165977923</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.852972456673</v>
+        <v>811.4116150799052</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.060393313143</v>
+        <v>590.6190359363751</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906163</v>
+        <v>803.7890349610748</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>389.6203923141829</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J29" t="n">
-        <v>524.5104023089598</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K29" t="n">
-        <v>969.3331573234223</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L29" t="n">
-        <v>1558.076880695427</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M29" t="n">
-        <v>2244.837149161784</v>
+        <v>2369.178015211324</v>
       </c>
       <c r="N29" t="n">
-        <v>2947.323725136514</v>
+        <v>3074.016219660738</v>
       </c>
       <c r="O29" t="n">
-        <v>3666.383824626042</v>
+        <v>3726.239688016505</v>
       </c>
       <c r="P29" t="n">
-        <v>4186.645253972373</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4529.167173995942</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044004</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J30" t="n">
-        <v>95.95764261668097</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="K30" t="n">
-        <v>409.6167321812592</v>
+        <v>350.6381866984641</v>
       </c>
       <c r="L30" t="n">
-        <v>877.6926271918186</v>
+        <v>820.2451728330252</v>
       </c>
       <c r="M30" t="n">
-        <v>1443.271987127746</v>
+        <v>1387.61124389376</v>
       </c>
       <c r="N30" t="n">
-        <v>2038.229194703015</v>
+        <v>1387.61124389376</v>
       </c>
       <c r="O30" t="n">
-        <v>2560.279010110498</v>
+        <v>1911.338811047606</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.5626519726035</v>
+        <v>411.5541098655052</v>
       </c>
       <c r="C31" t="n">
-        <v>639.5626519726035</v>
+        <v>411.5541098655052</v>
       </c>
       <c r="D31" t="n">
-        <v>489.4460125602677</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="E31" t="n">
-        <v>489.4460125602677</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="F31" t="n">
-        <v>489.4460125602677</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G31" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375322</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573045</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532476</v>
+        <v>417.5071952352226</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371896</v>
+        <v>793.1419734834329</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740116</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.29202696932</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327609</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2279.822068351272</v>
       </c>
       <c r="S31" t="n">
-        <v>2158.274661052482</v>
+        <v>2095.201495645659</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.214509174217</v>
+        <v>1875.16711620358</v>
       </c>
       <c r="U31" t="n">
-        <v>1649.133426940953</v>
+        <v>1586.08636298014</v>
       </c>
       <c r="V31" t="n">
-        <v>1394.448938735066</v>
+        <v>1331.401874774253</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.031768698105</v>
+        <v>1041.984704737292</v>
       </c>
       <c r="X31" t="n">
-        <v>877.0422178000879</v>
+        <v>813.9951538392751</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.2111168028432</v>
+        <v>593.2025746957449</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955677</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348927</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750683</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610752</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760573</v>
+        <v>389.6203923141831</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653989</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886067</v>
+        <v>358.2021945153779</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030693</v>
+        <v>804.7014151994154</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.671231675074</v>
+        <v>1395.524942477763</v>
       </c>
       <c r="M32" t="n">
-        <v>2077.431500141431</v>
+        <v>2084.599393525236</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028838</v>
+        <v>2789.43759797465</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300296</v>
+        <v>3441.661066330418</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646626</v>
+        <v>4248.396327675951</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.3414717167</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.002538067131</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810787</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467216</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197102</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936022</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256665</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445395</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832883</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778327</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047177</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866052</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044004</v>
+        <v>96.49777987399527</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421376</v>
+        <v>232.5958076174676</v>
       </c>
       <c r="K33" t="n">
-        <v>545.6098185067159</v>
+        <v>547.3935737179993</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6098185067159</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="M33" t="n">
-        <v>1111.189178442643</v>
+        <v>1017.00055985256</v>
       </c>
       <c r="N33" t="n">
-        <v>1706.146386017912</v>
+        <v>1613.791767479585</v>
       </c>
       <c r="O33" t="n">
-        <v>2228.196201425395</v>
+        <v>1911.338811047606</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.343290083222</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257455</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1103.301875980814</v>
+        <v>408.9705711061329</v>
       </c>
       <c r="C34" t="n">
-        <v>934.3656930529069</v>
+        <v>240.034388178226</v>
       </c>
       <c r="D34" t="n">
-        <v>784.2490536405711</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="E34" t="n">
-        <v>636.335960058178</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="F34" t="n">
-        <v>489.4460125602677</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="G34" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="H34" t="n">
-        <v>179.4762707375322</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134264</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603207</v>
+        <v>167.3552671573046</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532474</v>
+        <v>417.5071952352225</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371894</v>
+        <v>793.1419734834328</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358417</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740115</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740134</v>
+        <v>1957.292026969319</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327608</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262878</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961142</v>
+        <v>2277.2385295919</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616872</v>
+        <v>2092.617956886287</v>
       </c>
       <c r="T34" t="n">
-        <v>2057.041549951918</v>
+        <v>1872.583577444208</v>
       </c>
       <c r="U34" t="n">
-        <v>2057.041549951918</v>
+        <v>1583.502824220768</v>
       </c>
       <c r="V34" t="n">
-        <v>1802.357061746031</v>
+        <v>1328.818336014881</v>
       </c>
       <c r="W34" t="n">
-        <v>1512.939891709071</v>
+        <v>1039.40116597792</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.950340811053</v>
+        <v>811.4116150799027</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.950340811053</v>
+        <v>590.6190359363726</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>425.396123289489</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>916.128456133241</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>916.128456133241</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.851722962027</v>
+        <v>1538.224419532578</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2085.100894532773</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476023</v>
       </c>
       <c r="C37" t="n">
-        <v>930.4858260316503</v>
+        <v>326.1595320196955</v>
       </c>
       <c r="D37" t="n">
-        <v>780.3691866193144</v>
+        <v>176.0428926073598</v>
       </c>
       <c r="E37" t="n">
-        <v>632.4560930369213</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
-        <v>485.5661455390109</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948596</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335696</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294198</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033128</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.70418174751</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062237</v>
       </c>
       <c r="V37" t="n">
-        <v>1737.487313103733</v>
+        <v>1414.94347985635</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213722</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778421</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7181,19 +7181,19 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7251,28 +7251,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L39" t="n">
-        <v>915.0894235587172</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M39" t="n">
-        <v>1507.107777810845</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.203741210181</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.7476391326294</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C40" t="n">
-        <v>614.8114562047225</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D40" t="n">
-        <v>464.6948167923867</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>316.7817232099937</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>169.8917757120835</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8917757120835</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7345,37 +7345,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103734</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W40" t="n">
         <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628691</v>
+        <v>965.3961039628684</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.3961039628691</v>
+        <v>761.7638301475105</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
@@ -7418,34 +7418,34 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132384</v>
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J42" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="L42" t="n">
-        <v>734.6951238849127</v>
+        <v>107.3505653988748</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5128849845619</v>
+        <v>495.0957149476006</v>
       </c>
       <c r="C43" t="n">
-        <v>615.576702056655</v>
+        <v>326.1595320196937</v>
       </c>
       <c r="D43" t="n">
-        <v>465.4600626443193</v>
+        <v>176.042892607358</v>
       </c>
       <c r="E43" t="n">
-        <v>465.2418982115001</v>
+        <v>176.042892607358</v>
       </c>
       <c r="F43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7582,7 +7582,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P43" t="n">
         <v>2311.699365782259</v>
@@ -7600,19 +7600,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062236</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856349</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1414.943479856349</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X43" t="n">
-        <v>1186.953928958332</v>
+        <v>897.5367589213705</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.1613498148016</v>
+        <v>676.7441797778404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148068</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.884046211215</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436021</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7728,49 +7728,49 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1739543673658</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.552441993918</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.150405548525</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.060135787812</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.9309895913041</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9948066633972</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770286</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
         <v>93.84834815160703</v>
@@ -7804,52 +7804,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683896</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.1399343388</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.538469361741</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.463242705939</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.778754500052</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.361584463091</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3720335650739</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5794544215438</v>
+        <v>676.74417977784</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.017475755656733</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>400.597686978938</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>288.0478149561031</v>
+        <v>216.987758326334</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>103.7862464855149</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>304.5677898107847</v>
+        <v>9.421742685378263</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>287.4531532182708</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>69.75475476572819</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>304.5677898107848</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>287.45315321827</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>5.531365120028598</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.579046671728378</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>31.91068339785059</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.1046026619188</v>
       </c>
       <c r="W19" t="n">
-        <v>250.3979772260362</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696898</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>112.4554808976374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035358</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.017711759273823</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>149.6011269984266</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>84.28234746703995</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.5584822114093</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.1539249212548</v>
+        <v>2.557703371778417</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3118633648228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.180078975497878</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.28234746704003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>188.7926952911791</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.06136363537397</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>278.9646361569258</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>65.17099650708224</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440902</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>16.98870227489047</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.2179798580782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>64.04844901173783</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.98794349433096</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740736</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973787.6134467298</v>
+        <v>973734.6555875747</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973787.6134467298</v>
+        <v>973734.6555875748</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973787.6134467298</v>
+        <v>973734.6555875747</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973003.965481617</v>
+        <v>973003.9654816169</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>972845.5273830938</v>
+        <v>973003.9654816168</v>
       </c>
     </row>
   </sheetData>
@@ -26317,34 +26317,34 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="F2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756813</v>
       </c>
       <c r="H2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="J2" t="n">
-        <v>442417.8808406403</v>
+        <v>442502.8783120723</v>
       </c>
       <c r="K2" t="n">
-        <v>442417.8808406404</v>
+        <v>442502.8783120722</v>
       </c>
       <c r="L2" t="n">
-        <v>442417.8808406405</v>
+        <v>442502.878312072</v>
       </c>
       <c r="M2" t="n">
-        <v>443675.6374152076</v>
+        <v>443675.6374152078</v>
       </c>
       <c r="N2" t="n">
         <v>443675.6374152077</v>
@@ -26353,7 +26353,7 @@
         <v>443675.6374152076</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443675.6374152075</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733747</v>
+        <v>336433.9864356436</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408578</v>
+        <v>160866.4619420267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>9308.906536749568</v>
+        <v>9070.556508370535</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749566</v>
+        <v>9070.556508370611</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749571</v>
+        <v>9070.556508370601</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855098</v>
+        <v>5781.971894854997</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855107</v>
+        <v>5781.971894855088</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855142</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855101</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="P5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101146.6105026698</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422318.4897803296</v>
+        <v>-422318.4897803295</v>
       </c>
       <c r="C6" t="n">
-        <v>167649.389434215</v>
+        <v>167649.3894342151</v>
       </c>
       <c r="D6" t="n">
-        <v>167649.389434215</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="E6" t="n">
-        <v>-412061.6903464328</v>
+        <v>-412128.8858366585</v>
       </c>
       <c r="F6" t="n">
-        <v>315315.723646974</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="G6" t="n">
-        <v>315315.7236469741</v>
+        <v>315248.528156748</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.7236469741</v>
+        <v>315248.5281567482</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.723646974</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="J6" t="n">
-        <v>-1043.909618814709</v>
+        <v>-3198.573931522965</v>
       </c>
       <c r="K6" t="n">
-        <v>333009.41545456</v>
+        <v>333235.4125041213</v>
       </c>
       <c r="L6" t="n">
-        <v>333009.4154545601</v>
+        <v>333235.4125041203</v>
       </c>
       <c r="M6" t="n">
-        <v>173834.1473222561</v>
+        <v>176061.2671392233</v>
       </c>
       <c r="N6" t="n">
-        <v>336963.626063114</v>
+        <v>336927.7290812507</v>
       </c>
       <c r="O6" t="n">
-        <v>336963.6260631139</v>
+        <v>336927.7290812496</v>
       </c>
       <c r="P6" t="n">
-        <v>331104.2941502105</v>
+        <v>336927.7290812496</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26759,16 +26759,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059648</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059647</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912546</v>
+        <v>222.5738964663503</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183294</v>
+        <v>45.69045165673992</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-1.257808814493272e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664085</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377723</v>
+        <v>516.5793752286796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>125.3365007587856</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>87.98059509815923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.0492717456867</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.06971808504606</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>19.33230934126442</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>201.6819593027986</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.837363033884704e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-7.032208304403592e-13</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721817</v>
+        <v>5.27578129471215</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442732</v>
+        <v>54.03059518447083</v>
       </c>
       <c r="I26" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643904</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357687</v>
+        <v>447.7753426620758</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010033</v>
+        <v>671.0991648672413</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386788</v>
+        <v>832.5578566652883</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023804</v>
+        <v>926.3810322651256</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710664</v>
+        <v>941.3708458687265</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736637</v>
+        <v>888.9097956194325</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545937</v>
+        <v>758.6639449062262</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719935</v>
+        <v>569.7250272893472</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520771</v>
+        <v>331.4047967539624</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532533</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760245</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769719</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906397</v>
+        <v>2.822791850279244</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256968</v>
+        <v>27.2622265540127</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923342</v>
+        <v>97.18822817847398</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651742</v>
+        <v>266.6919265213386</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709027</v>
+        <v>455.8189804900479</v>
       </c>
       <c r="L27" t="n">
-        <v>611.3583141339745</v>
+        <v>340.3603986100197</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855812</v>
+        <v>715.2310753975083</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219887</v>
+        <v>734.1611137267934</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>304.4947909540664</v>
+        <v>539.0294367432357</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483324</v>
+        <v>360.3269035549435</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375131</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940168</v>
+        <v>52.43212055233592</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318695</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499503</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250833</v>
+        <v>2.366533863550186</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613924</v>
+        <v>21.04063744138257</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827052</v>
+        <v>71.16812746021833</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529981</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561033</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772704</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793646</v>
+        <v>370.9649400835985</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558209</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589088</v>
+        <v>334.4988046407118</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242877</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908675</v>
+        <v>198.1649401560069</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614405</v>
+        <v>41.24223105841549</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062352</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721817</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442732</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I29" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357687</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010033</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386788</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023804</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710664</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736637</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545937</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719935</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520771</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906397</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256968</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923342</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J30" t="n">
-        <v>128.6522229010766</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709027</v>
+        <v>396.9304651734716</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339745</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855812</v>
+        <v>715.2310753975077</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219887</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105891</v>
+        <v>671.6139890442895</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940168</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250833</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613924</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827052</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793646</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589088</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908675</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614405</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721817</v>
+        <v>5.275781294712146</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442732</v>
+        <v>54.03059518447078</v>
       </c>
       <c r="I32" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643902</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357687</v>
+        <v>447.7753426620754</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010033</v>
+        <v>671.0991648672407</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386788</v>
+        <v>832.5578566652877</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023804</v>
+        <v>926.3810322651248</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710664</v>
+        <v>941.3708458687257</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736637</v>
+        <v>888.9097956194317</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545937</v>
+        <v>758.6639449062255</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719935</v>
+        <v>569.7250272893466</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520771</v>
+        <v>331.4047967539621</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532531</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760243</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769716</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906397</v>
+        <v>2.822791850279241</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256968</v>
+        <v>27.26222655401268</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923342</v>
+        <v>97.18822817847389</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651742</v>
+        <v>266.6919265213384</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709027</v>
+        <v>455.8189804900475</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>612.9048708248854</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855812</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219887</v>
+        <v>734.1611137267927</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105891</v>
+        <v>443.1488137050716</v>
       </c>
       <c r="P33" t="n">
-        <v>469.4115879043332</v>
+        <v>539.0294367432352</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549432</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.260708037513</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940168</v>
+        <v>52.43212055233587</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318694</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499502</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250833</v>
+        <v>2.366533863550183</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613924</v>
+        <v>21.04063744138255</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827052</v>
+        <v>71.16812746021826</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022339</v>
+        <v>167.3139441529979</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561031</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790193</v>
+        <v>351.8390436772701</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793646</v>
+        <v>370.9649400835983</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558206</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589088</v>
+        <v>334.4988046407115</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242875</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908675</v>
+        <v>198.1649401560067</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829019</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614405</v>
+        <v>41.24223105841546</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062351</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845556</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>338.8471164485074</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
@@ -33986,16 +33986,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>571.4938338238233</v>
+        <v>487.6284627049906</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34205,19 +34205,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>302.8877650506832</v>
+        <v>151.1434552068895</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927639</v>
@@ -34232,7 +34232,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>541.8219741960825</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704901</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>456.6075901479889</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>230.2702165464391</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>856.18780137127</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789179</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>840.3496503690146</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443173</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>611.8392473737339</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090824</v>
+        <v>266.7294381353895</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560228</v>
+        <v>451.0093138222607</v>
       </c>
       <c r="L26" t="n">
-        <v>899.2584194794763</v>
+        <v>606.2131843806793</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751077</v>
+        <v>696.0347990378528</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744755</v>
+        <v>711.9577822721355</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519769</v>
+        <v>658.8115841977458</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993241</v>
+        <v>527.4309491509566</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.981737397544</v>
+        <v>559.7343280748023</v>
       </c>
       <c r="R26" t="n">
-        <v>114.983017737945</v>
+        <v>181.5356788128127</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985075</v>
+        <v>139.8542998546719</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965437</v>
+        <v>317.9775415156889</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343541004</v>
+        <v>201.8060188301455</v>
       </c>
       <c r="M27" t="n">
-        <v>571.292282763563</v>
+        <v>573.09704147549</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386554</v>
+        <v>602.8194016434601</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>170.5203835397361</v>
+        <v>405.0550293289054</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623109</v>
+        <v>220.345129468922</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.58120407354917</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556109</v>
+        <v>73.95476403632532</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302204</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375865</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412052</v>
+        <v>410.5488170454391</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350495</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729485</v>
+        <v>359.0839325547515</v>
       </c>
       <c r="P28" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891812</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043125</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>434.6961716811562</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560228</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686916</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751077</v>
+        <v>983.4879522561229</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744755</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O29" t="n">
-        <v>726.3233328177051</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993241</v>
+        <v>527.4309491509559</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.981737397544</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R29" t="n">
-        <v>180.6994376109274</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.814596234409853</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965437</v>
+        <v>259.0890261991126</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541004</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M30" t="n">
-        <v>571.292282763563</v>
+        <v>573.0970414754893</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386554</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661446</v>
+        <v>529.0177445998451</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556109</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412052</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729485</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P31" t="n">
-        <v>282.777843884685</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090824</v>
+        <v>266.7294381353891</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560228</v>
+        <v>451.0093138222601</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686916</v>
+        <v>596.7914416953004</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751077</v>
+        <v>696.0347990378521</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.15018978526</v>
+        <v>711.9577822721349</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519769</v>
+        <v>658.811584197745</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993241</v>
+        <v>814.884102369226</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.981737397544</v>
+        <v>347.4193374148971</v>
       </c>
       <c r="R32" t="n">
-        <v>114.983017737945</v>
+        <v>115.81925893983</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985075</v>
+        <v>139.8542998546717</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965437</v>
+        <v>317.9775415156885</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>474.3504910450112</v>
       </c>
       <c r="M33" t="n">
-        <v>571.292282763563</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386554</v>
+        <v>602.8194016434594</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661446</v>
+        <v>300.5525692606271</v>
       </c>
       <c r="P33" t="n">
-        <v>335.437180490003</v>
+        <v>405.055029328905</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689217</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.581204073549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556109</v>
+        <v>73.95476403632517</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302202</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375862</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412052</v>
+        <v>410.5488170454389</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350492</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729485</v>
+        <v>359.0839325547512</v>
       </c>
       <c r="P34" t="n">
-        <v>282.777843884685</v>
+        <v>283.500073089181</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043124</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>204.8727090341772</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
         <v>744.73230092637</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
@@ -37634,16 +37634,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>428.8975893793788</v>
+        <v>345.0322182605461</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
@@ -37798,7 +37798,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
         <v>127.3573607845842</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>164.3333852708091</v>
+        <v>12.5890754270153</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094306</v>
@@ -37880,7 +37880,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>410.4802621127491</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561599</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295339</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
